--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1135142.345839639</v>
+        <v>1134532.585782586</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17657175.71523436</v>
+        <v>17657175.71523435</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230361.9932825538</v>
+        <v>230361.9932825535</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>239.7359503305271</v>
+        <v>172.4275432839639</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -831,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>41.33715235188118</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>209.9418974581074</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>213.2558360395032</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
+        <v>33.76104808841092</v>
+      </c>
+      <c r="D5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D5" t="n">
-        <v>31.5506869772999</v>
-      </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>383.105870674374</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>69.1873865540274</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>71.45540226555268</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1135,25 +1135,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>94.75464620613745</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>390.8684357665072</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1201,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1299,10 +1299,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>102.8564120831589</v>
       </c>
       <c r="V10" t="n">
-        <v>276.9722589587239</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H11" t="n">
-        <v>284.8176194334632</v>
+        <v>284.8176194334636</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>79.34498155828756</v>
       </c>
       <c r="I13" t="n">
         <v>85.90132644576698</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>156.56410959728</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>60.94031888138385</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,10 +1609,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773004</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1782,10 +1782,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H16" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.56410959728</v>
+        <v>78.87258048141338</v>
       </c>
       <c r="T16" t="n">
         <v>243.1546752508501</v>
@@ -1827,10 +1827,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>192.296764597057</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932883</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>25.82886500703271</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2013,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.8731123569568</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>156.56410959728</v>
       </c>
       <c r="T19" t="n">
-        <v>243.1546752508501</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.645275292109</v>
+        <v>217.257400327427</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2137,13 +2137,13 @@
         <v>217.2590655368476</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240564</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>37.35396789784523</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>119.7276584420851</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H22" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>156.56410959728</v>
@@ -2326,7 +2326,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932883</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2374,7 +2374,7 @@
         <v>217.2590655368476</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240564</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>44.23352768393639</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I25" t="n">
-        <v>67.77692056418599</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>156.56410959728</v>
@@ -2608,10 +2608,10 @@
         <v>79.65301062268192</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2590655368471</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240546</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2724,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>149.042708574435</v>
       </c>
       <c r="G28" t="n">
         <v>163.8731123569568</v>
@@ -2733,7 +2733,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>156.56410959728</v>
       </c>
       <c r="T28" t="n">
-        <v>27.51345148108474</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U28" t="n">
-        <v>275.645275292109</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2851,7 +2851,7 @@
         <v>256.6189776240556</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655109</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -2958,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>109.6725487470883</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2970,7 +2970,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T31" t="n">
-        <v>184.0775610783649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.645275292109</v>
@@ -3034,7 +3034,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772995</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>59.19397671787237</v>
       </c>
       <c r="D34" t="n">
-        <v>105.1420986980071</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3207,7 +3207,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T34" t="n">
         <v>243.1546752508501</v>
@@ -3322,7 +3322,7 @@
         <v>217.2590655368476</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>108.9545207629625</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.8731123569568</v>
       </c>
       <c r="H37" t="n">
-        <v>137.9496946538981</v>
+        <v>120.4930974866398</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>156.56410959728</v>
@@ -3483,7 +3483,7 @@
         <v>275.645275292109</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3559,7 +3559,7 @@
         <v>217.2590655368476</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240564</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3672,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.8731123569568</v>
       </c>
       <c r="H40" t="n">
-        <v>78.84379170509057</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>156.56410959728</v>
@@ -3717,13 +3717,13 @@
         <v>243.1546752508501</v>
       </c>
       <c r="U40" t="n">
-        <v>275.645275292109</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>243.4088654461481</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>79.65301062268192</v>
+        <v>79.65301062268223</v>
       </c>
       <c r="T41" t="n">
         <v>217.2590655368476</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>113.5033562952975</v>
+        <v>138.1323211189888</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I43" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.65301062268192</v>
+        <v>79.65301062268223</v>
       </c>
       <c r="T44" t="n">
         <v>217.2590655368476</v>
@@ -4039,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>56.41830602803523</v>
       </c>
       <c r="F46" t="n">
-        <v>25.82886500703282</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.8731123569568</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>156.56410959728</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.069156190556</v>
+        <v>991.4987273237359</v>
       </c>
       <c r="C2" t="n">
-        <v>1132.967087414383</v>
+        <v>957.3966585475632</v>
       </c>
       <c r="D2" t="n">
-        <v>704.3854131516516</v>
+        <v>925.5272777624118</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4330,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1208.676101675288</v>
+        <v>1033.105672808467</v>
       </c>
       <c r="X2" t="n">
-        <v>1193.574042295002</v>
+        <v>1018.003613428182</v>
       </c>
       <c r="Y2" t="n">
-        <v>1189.32832263506</v>
+        <v>1013.75789376824</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,40 +4397,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>711.8779941617646</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4488,19 +4488,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.116283566643</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W4" t="n">
-        <v>1131.116283566643</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X4" t="n">
-        <v>1131.116283566643</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="Y4" t="n">
-        <v>903.6966128807517</v>
+        <v>380.4087263891149</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.5030339308241</v>
+        <v>907.846853507573</v>
       </c>
       <c r="C5" t="n">
-        <v>408.9213596680925</v>
+        <v>873.7447847314004</v>
       </c>
       <c r="D5" t="n">
-        <v>377.0519788829411</v>
+        <v>445.1631104686687</v>
       </c>
       <c r="E5" t="n">
-        <v>347.3176380816403</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
         <v>34.36045797446834</v>
@@ -4570,16 +4570,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W5" t="n">
-        <v>1476.301152404893</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X5" t="n">
-        <v>1057.158688984204</v>
+        <v>1338.392143652423</v>
       </c>
       <c r="Y5" t="n">
-        <v>1052.912969324262</v>
+        <v>930.1060199520767</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>739.9048540962709</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>365.0515783881802</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C7" t="n">
-        <v>192.4898668714051</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D7" t="n">
-        <v>192.4898668714051</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4755,22 +4755,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V7" t="n">
-        <v>864.4976534877803</v>
+        <v>1603.58843478018</v>
       </c>
       <c r="W7" t="n">
-        <v>592.4712490740719</v>
+        <v>1331.562030366472</v>
       </c>
       <c r="X7" t="n">
-        <v>592.4712490740719</v>
+        <v>1086.170275699885</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.0515783881802</v>
+        <v>858.7506050139928</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>907.846853507573</v>
+        <v>1208.492610164787</v>
       </c>
       <c r="C8" t="n">
-        <v>873.7447847314004</v>
+        <v>779.9109359020549</v>
       </c>
       <c r="D8" t="n">
-        <v>778.0330208868171</v>
+        <v>748.0415551169035</v>
       </c>
       <c r="E8" t="n">
-        <v>748.2986800855164</v>
+        <v>718.3072143156028</v>
       </c>
       <c r="F8" t="n">
-        <v>724.4716545351282</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4810,22 +4810,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>1277.130531135514</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>1277.130531135514</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O8" t="n">
-        <v>1697.183430080417</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R8" t="n">
         <v>1697.183430080417</v>
@@ -4837,19 +4837,19 @@
         <v>1613.531556264254</v>
       </c>
       <c r="U8" t="n">
-        <v>1354.309253581271</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V8" t="n">
-        <v>1354.309253581271</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W8" t="n">
-        <v>1353.494203032709</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X8" t="n">
-        <v>1338.392143652423</v>
+        <v>1234.997496269233</v>
       </c>
       <c r="Y8" t="n">
-        <v>930.1060199520767</v>
+        <v>1230.75177660929</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4883,16 +4883,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J9" t="n">
-        <v>358.5019935678207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K9" t="n">
-        <v>778.554892512724</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L9" t="n">
-        <v>778.554892512724</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M9" t="n">
-        <v>778.554892512724</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N9" t="n">
         <v>857.0776321906106</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8484307043673</v>
+        <v>461.0433221421854</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>288.4816106254103</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>341.7616130750586</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>341.7616130750586</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4992,22 +4992,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.644793662241</v>
+        <v>1412.628874343221</v>
       </c>
       <c r="V10" t="n">
-        <v>990.8748351180757</v>
+        <v>1125.673366213652</v>
       </c>
       <c r="W10" t="n">
-        <v>718.8484307043673</v>
+        <v>1125.673366213652</v>
       </c>
       <c r="X10" t="n">
-        <v>718.8484307043673</v>
+        <v>880.2816115470644</v>
       </c>
       <c r="Y10" t="n">
-        <v>718.8484307043673</v>
+        <v>652.8619408611726</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>791.0944537814166</v>
       </c>
       <c r="G11" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776308</v>
       </c>
       <c r="H11" t="n">
         <v>102.1422344933241</v>
@@ -5041,28 +5041,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J11" t="n">
-        <v>553.9456687731839</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K11" t="n">
-        <v>1405.772184659974</v>
+        <v>632.402696562455</v>
       </c>
       <c r="L11" t="n">
-        <v>2467.959557054138</v>
+        <v>1729.143463952188</v>
       </c>
       <c r="M11" t="n">
-        <v>2492.083625762057</v>
+        <v>2910.315367870658</v>
       </c>
       <c r="N11" t="n">
-        <v>2516.598047122608</v>
+        <v>4060.560772667655</v>
       </c>
       <c r="O11" t="n">
-        <v>3519.925986636534</v>
+        <v>5063.888712181582</v>
       </c>
       <c r="P11" t="n">
-        <v>4367.992376873088</v>
+        <v>5083.64522758474</v>
       </c>
       <c r="Q11" t="n">
-        <v>4929.327483119182</v>
+        <v>5098.481547872238</v>
       </c>
       <c r="R11" t="n">
         <v>5107.111724666206</v>
@@ -5117,31 +5117,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I12" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J12" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K12" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L12" t="n">
-        <v>139.4489541568686</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M12" t="n">
-        <v>158.0744257543811</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N12" t="n">
-        <v>177.1928581632593</v>
+        <v>527.8148562899293</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.159027993443</v>
+        <v>545.304486855106</v>
       </c>
       <c r="P12" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q12" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R12" t="n">
         <v>1762.882278270333</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1039.344409528127</v>
+        <v>1119.4908555466</v>
       </c>
       <c r="C13" t="n">
-        <v>866.7826980113522</v>
+        <v>946.9291440298244</v>
       </c>
       <c r="D13" t="n">
-        <v>700.9047052128749</v>
+        <v>781.0511512313471</v>
       </c>
       <c r="E13" t="n">
-        <v>531.1467014636121</v>
+        <v>611.2931474820844</v>
       </c>
       <c r="F13" t="n">
-        <v>354.4396474253683</v>
+        <v>434.5860934438406</v>
       </c>
       <c r="G13" t="n">
-        <v>188.91125110521</v>
+        <v>269.0576971236823</v>
       </c>
       <c r="H13" t="n">
         <v>188.91125110521</v>
@@ -5202,10 +5202,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K13" t="n">
-        <v>474.9974089600884</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L13" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M13" t="n">
         <v>1371.513837086632</v>
@@ -5217,34 +5217,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P13" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q13" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R13" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S13" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T13" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U13" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V13" t="n">
-        <v>1792.164981004678</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W13" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X13" t="n">
-        <v>1458.582698933006</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="Y13" t="n">
-        <v>1231.163028247114</v>
+        <v>1311.309474265587</v>
       </c>
     </row>
     <row r="14">
@@ -5357,22 +5357,22 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J15" t="n">
-        <v>313.1883495026066</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K15" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L15" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M15" t="n">
-        <v>1040.378186925049</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N15" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899293</v>
       </c>
       <c r="O15" t="n">
-        <v>1076.986249899104</v>
+        <v>545.304486855106</v>
       </c>
       <c r="P15" t="n">
         <v>1091.023220340725</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1178.687535441156</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C16" t="n">
-        <v>1006.125823924381</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D16" t="n">
-        <v>840.2478311259033</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E16" t="n">
-        <v>670.4898273766405</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F16" t="n">
-        <v>493.7827733383967</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G16" t="n">
-        <v>328.2543770182384</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H16" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I16" t="n">
         <v>102.1422344933241</v>
@@ -5439,10 +5439,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K16" t="n">
-        <v>474.9974089600884</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L16" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M16" t="n">
         <v>1371.513837086632</v>
@@ -5454,34 +5454,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P16" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q16" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R16" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S16" t="n">
-        <v>2603.160843218045</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T16" t="n">
-        <v>2357.550060136378</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U16" t="n">
-        <v>2079.120489134248</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V16" t="n">
-        <v>1792.164981004678</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W16" t="n">
-        <v>1597.925824846035</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X16" t="n">
-        <v>1597.925824846035</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.506154160143</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C17" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E17" t="n">
         <v>1218.961883372208</v>
@@ -5518,13 +5518,13 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K17" t="n">
-        <v>571.4218927017964</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L17" t="n">
-        <v>1342.228573617691</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M17" t="n">
-        <v>1366.35264232561</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N17" t="n">
         <v>2516.598047122608</v>
@@ -5560,7 +5560,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y17" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I18" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J18" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K18" t="n">
-        <v>804.221699232701</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L18" t="n">
-        <v>820.182474227246</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M18" t="n">
-        <v>838.8079458247585</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N18" t="n">
-        <v>857.9263782336367</v>
+        <v>527.8148562899293</v>
       </c>
       <c r="O18" t="n">
-        <v>915.1748001463208</v>
+        <v>545.304486855106</v>
       </c>
       <c r="P18" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q18" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R18" t="n">
         <v>1762.882278270333</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.5085325195032</v>
+        <v>1178.687535441156</v>
       </c>
       <c r="C19" t="n">
-        <v>829.4187698861368</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="D19" t="n">
-        <v>663.5407770876595</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E19" t="n">
-        <v>493.7827733383967</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F19" t="n">
         <v>493.7827733383967</v>
@@ -5676,10 +5676,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K19" t="n">
-        <v>474.9974089600884</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L19" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M19" t="n">
         <v>1371.513837086632</v>
@@ -5691,34 +5691,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P19" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q19" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R19" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S19" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T19" t="n">
-        <v>2357.550060136378</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="U19" t="n">
-        <v>2079.120489134248</v>
+        <v>2402.2994920559</v>
       </c>
       <c r="V19" t="n">
-        <v>1792.164981004678</v>
+        <v>2115.343983926331</v>
       </c>
       <c r="W19" t="n">
-        <v>1520.13857659097</v>
+        <v>1843.317579512622</v>
       </c>
       <c r="X19" t="n">
-        <v>1274.746821924382</v>
+        <v>1597.925824846035</v>
       </c>
       <c r="Y19" t="n">
-        <v>1047.32715123849</v>
+        <v>1370.506154160143</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C20" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D20" t="n">
         <v>1652.736628213913</v>
@@ -5752,28 +5752,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8487952782984</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K20" t="n">
-        <v>383.325019206911</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L20" t="n">
-        <v>1480.065786596643</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M20" t="n">
-        <v>2661.237690515114</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N20" t="n">
-        <v>2685.752111875664</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O20" t="n">
-        <v>3689.080051389591</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P20" t="n">
-        <v>4537.146441626144</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q20" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R20" t="n">
         <v>5107.111724666206</v>
@@ -5785,16 +5785,16 @@
         <v>4807.200536626277</v>
       </c>
       <c r="U20" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V20" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W20" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X20" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y20" t="n">
         <v>2953.088456340953</v>
@@ -5828,31 +5828,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I21" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J21" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K21" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L21" t="n">
-        <v>1093.992002967972</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M21" t="n">
-        <v>1112.617474565485</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N21" t="n">
-        <v>1131.735906974363</v>
+        <v>527.8148562899293</v>
       </c>
       <c r="O21" t="n">
-        <v>1149.22553753954</v>
+        <v>545.304486855106</v>
       </c>
       <c r="P21" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q21" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R21" t="n">
         <v>1762.882278270333</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1047.32715123849</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C22" t="n">
-        <v>874.7654397217153</v>
+        <v>874.099100880012</v>
       </c>
       <c r="D22" t="n">
-        <v>708.887446923238</v>
+        <v>708.2211080815347</v>
       </c>
       <c r="E22" t="n">
-        <v>539.1294431739752</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F22" t="n">
-        <v>362.4223891357315</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G22" t="n">
-        <v>241.4853604063525</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H22" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I22" t="n">
         <v>102.1422344933241</v>
@@ -5913,10 +5913,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K22" t="n">
-        <v>474.9974089600884</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L22" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M22" t="n">
         <v>1371.513837086632</v>
@@ -5928,34 +5928,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P22" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q22" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R22" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S22" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T22" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U22" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V22" t="n">
-        <v>1792.164981004678</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W22" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X22" t="n">
-        <v>1274.746821924382</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y22" t="n">
-        <v>1047.32715123849</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C23" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E23" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F23" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814175</v>
       </c>
       <c r="G23" t="n">
         <v>389.8367995776304</v>
@@ -5989,52 +5989,52 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J23" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K23" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L23" t="n">
-        <v>2067.258264596789</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M23" t="n">
-        <v>3248.430168515259</v>
+        <v>3472.263292332364</v>
       </c>
       <c r="N23" t="n">
-        <v>3272.94458987581</v>
+        <v>3496.777713692915</v>
       </c>
       <c r="O23" t="n">
-        <v>4276.272529389737</v>
+        <v>3519.925986636535</v>
       </c>
       <c r="P23" t="n">
-        <v>4537.146441626144</v>
+        <v>4367.992376873089</v>
       </c>
       <c r="Q23" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119183</v>
       </c>
       <c r="R23" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666207</v>
       </c>
       <c r="S23" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.65413817865</v>
       </c>
       <c r="T23" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626278</v>
       </c>
       <c r="U23" t="n">
         <v>4547.98944811713</v>
       </c>
       <c r="V23" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W23" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X23" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y23" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I24" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137692</v>
       </c>
       <c r="J24" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K24" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L24" t="n">
-        <v>139.4489541568686</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M24" t="n">
-        <v>347.2898539968176</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N24" t="n">
-        <v>1600.235557966002</v>
+        <v>527.8148562899293</v>
       </c>
       <c r="O24" t="n">
-        <v>1617.725188531179</v>
+        <v>545.304486855106</v>
       </c>
       <c r="P24" t="n">
-        <v>1631.762158972801</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q24" t="n">
         <v>1641.145501977371</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>855.5085325195032</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C25" t="n">
-        <v>682.9468210027281</v>
+        <v>829.4187698861368</v>
       </c>
       <c r="D25" t="n">
-        <v>517.0688282042508</v>
+        <v>663.5407770876595</v>
       </c>
       <c r="E25" t="n">
-        <v>347.3108244549881</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="F25" t="n">
-        <v>170.6037704167443</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G25" t="n">
-        <v>170.6037704167443</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H25" t="n">
-        <v>170.6037704167443</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I25" t="n">
         <v>102.1422344933241</v>
@@ -6150,10 +6150,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K25" t="n">
-        <v>474.9974089600884</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L25" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M25" t="n">
         <v>1371.513837086632</v>
@@ -6165,34 +6165,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P25" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q25" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R25" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S25" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T25" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U25" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V25" t="n">
-        <v>1792.164981004678</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W25" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X25" t="n">
-        <v>1274.746821924382</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y25" t="n">
-        <v>1047.32715123849</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="26">
@@ -6232,22 +6232,22 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L26" t="n">
-        <v>2502.512952049707</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M26" t="n">
-        <v>2661.237690515114</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N26" t="n">
-        <v>2685.752111875664</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O26" t="n">
-        <v>3689.080051389591</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P26" t="n">
-        <v>4537.146441626144</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q26" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R26" t="n">
         <v>5107.111724666205</v>
@@ -6256,7 +6256,7 @@
         <v>5026.654138178647</v>
       </c>
       <c r="T26" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626276</v>
       </c>
       <c r="U26" t="n">
         <v>4547.98944811713</v>
@@ -6305,28 +6305,28 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J27" t="n">
-        <v>137.6817815627741</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K27" t="n">
-        <v>149.5518523227813</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L27" t="n">
-        <v>165.5126273173262</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M27" t="n">
-        <v>184.1380989148387</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N27" t="n">
-        <v>203.2565313237169</v>
+        <v>527.8148562899293</v>
       </c>
       <c r="O27" t="n">
-        <v>1234.547771707195</v>
+        <v>545.304486855106</v>
       </c>
       <c r="P27" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q27" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R27" t="n">
         <v>1762.882278270333</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.91851882927</v>
+        <v>1152.528671882139</v>
       </c>
       <c r="C28" t="n">
-        <v>919.3568073124947</v>
+        <v>979.9669603653641</v>
       </c>
       <c r="D28" t="n">
-        <v>753.4788145140174</v>
+        <v>814.0889675668868</v>
       </c>
       <c r="E28" t="n">
-        <v>583.7208107647547</v>
+        <v>644.330963817624</v>
       </c>
       <c r="F28" t="n">
-        <v>407.0137567265109</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G28" t="n">
-        <v>241.4853604063525</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H28" t="n">
-        <v>102.1422344933241</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I28" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="J28" t="n">
-        <v>193.0789746321109</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K28" t="n">
-        <v>474.9974089600884</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L28" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M28" t="n">
         <v>1371.513837086632</v>
@@ -6402,34 +6402,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P28" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q28" t="n">
-        <v>2779.896976828331</v>
+        <v>2779.896976828328</v>
       </c>
       <c r="R28" t="n">
-        <v>2779.896976828331</v>
+        <v>2779.896976828328</v>
       </c>
       <c r="S28" t="n">
-        <v>2621.751411578553</v>
+        <v>2621.75141157855</v>
       </c>
       <c r="T28" t="n">
-        <v>2593.960046446144</v>
+        <v>2376.140628496883</v>
       </c>
       <c r="U28" t="n">
-        <v>2315.530475444014</v>
+        <v>2376.140628496883</v>
       </c>
       <c r="V28" t="n">
-        <v>2028.574967314445</v>
+        <v>2089.185120367314</v>
       </c>
       <c r="W28" t="n">
-        <v>1756.548562900736</v>
+        <v>1817.158715953606</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.156808234149</v>
+        <v>1571.766961287018</v>
       </c>
       <c r="Y28" t="n">
-        <v>1283.737137548257</v>
+        <v>1344.347290601126</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C29" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D29" t="n">
         <v>1652.736628213913</v>
@@ -6451,7 +6451,7 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F29" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814157</v>
       </c>
       <c r="G29" t="n">
         <v>389.8367995776304</v>
@@ -6463,25 +6463,25 @@
         <v>107.030376497994</v>
       </c>
       <c r="J29" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K29" t="n">
-        <v>136.1672052488784</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L29" t="n">
-        <v>1232.907972638611</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M29" t="n">
-        <v>2414.079876557081</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.598047122608</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O29" t="n">
-        <v>3519.925986636534</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P29" t="n">
-        <v>4367.992376873088</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q29" t="n">
         <v>4929.327483119181</v>
@@ -6493,19 +6493,19 @@
         <v>5026.654138178647</v>
       </c>
       <c r="T29" t="n">
-        <v>4807.200536626276</v>
+        <v>4807.200536626277</v>
       </c>
       <c r="U29" t="n">
         <v>4547.989448117129</v>
       </c>
       <c r="V29" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W29" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X29" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y29" t="n">
         <v>2953.088456340953</v>
@@ -6545,19 +6545,19 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K30" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L30" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M30" t="n">
-        <v>1040.378186925049</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N30" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899293</v>
       </c>
       <c r="O30" t="n">
-        <v>1076.986249899104</v>
+        <v>545.304486855106</v>
       </c>
       <c r="P30" t="n">
         <v>1091.023220340725</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.91851882927</v>
+        <v>1119.709883961679</v>
       </c>
       <c r="C31" t="n">
-        <v>919.3568073124947</v>
+        <v>947.1481724449039</v>
       </c>
       <c r="D31" t="n">
-        <v>753.4788145140174</v>
+        <v>781.2701796464266</v>
       </c>
       <c r="E31" t="n">
-        <v>583.7208107647547</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F31" t="n">
-        <v>407.0137567265109</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G31" t="n">
-        <v>241.4853604063525</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H31" t="n">
-        <v>102.1422344933241</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I31" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="J31" t="n">
-        <v>193.0789746321109</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K31" t="n">
-        <v>474.9974089600884</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L31" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M31" t="n">
         <v>1371.513837086632</v>
@@ -6639,7 +6639,7 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P31" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q31" t="n">
         <v>2779.896976828331</v>
@@ -6648,25 +6648,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S31" t="n">
-        <v>2779.896976828331</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T31" t="n">
-        <v>2593.960046446144</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="U31" t="n">
-        <v>2315.530475444014</v>
+        <v>2343.321840576423</v>
       </c>
       <c r="V31" t="n">
-        <v>2028.574967314445</v>
+        <v>2056.366332446854</v>
       </c>
       <c r="W31" t="n">
-        <v>1756.548562900736</v>
+        <v>1784.339928033145</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.156808234149</v>
+        <v>1538.948173366558</v>
       </c>
       <c r="Y31" t="n">
-        <v>1283.737137548257</v>
+        <v>1311.528502680666</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F32" t="n">
-        <v>791.0944537814157</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G32" t="n">
         <v>389.8367995776304</v>
@@ -6700,28 +6700,28 @@
         <v>107.030376497994</v>
       </c>
       <c r="J32" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K32" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L32" t="n">
-        <v>2067.258264596789</v>
+        <v>2291.091388413893</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.382333304708</v>
+        <v>3472.263292332362</v>
       </c>
       <c r="N32" t="n">
-        <v>3241.627738101705</v>
+        <v>3496.777713692913</v>
       </c>
       <c r="O32" t="n">
-        <v>4244.955677615632</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P32" t="n">
-        <v>4537.146441626144</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q32" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R32" t="n">
         <v>5107.111724666205</v>
@@ -6730,7 +6730,7 @@
         <v>5026.654138178647</v>
       </c>
       <c r="T32" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626276</v>
       </c>
       <c r="U32" t="n">
         <v>4547.989448117129</v>
@@ -6788,7 +6788,7 @@
         <v>1021.752715327536</v>
       </c>
       <c r="M33" t="n">
-        <v>1040.378186925049</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N33" t="n">
         <v>1059.496619333927</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1032.244666129789</v>
+        <v>1065.917719598999</v>
       </c>
       <c r="C34" t="n">
-        <v>859.6829546130144</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="D34" t="n">
-        <v>753.4788145140174</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E34" t="n">
-        <v>583.7208107647547</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F34" t="n">
-        <v>407.0137567265109</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G34" t="n">
-        <v>241.4853604063525</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H34" t="n">
-        <v>102.1422344933241</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I34" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="J34" t="n">
-        <v>193.0789746321109</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K34" t="n">
-        <v>474.9974089600884</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L34" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M34" t="n">
         <v>1371.513837086632</v>
@@ -6876,7 +6876,7 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P34" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q34" t="n">
         <v>2779.896976828331</v>
@@ -6885,25 +6885,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S34" t="n">
-        <v>2779.896976828331</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T34" t="n">
-        <v>2534.286193746664</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U34" t="n">
-        <v>2255.856622744534</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V34" t="n">
-        <v>1968.901114614964</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W34" t="n">
-        <v>1696.874710201256</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X34" t="n">
-        <v>1451.482955534668</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y34" t="n">
-        <v>1224.063284848777</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E35" t="n">
-        <v>1218.96188337221</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F35" t="n">
-        <v>791.0944537814171</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G35" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H35" t="n">
         <v>102.1422344933241</v>
@@ -6943,16 +6943,16 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L35" t="n">
-        <v>1427.452985796848</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M35" t="n">
-        <v>2492.083625762057</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N35" t="n">
-        <v>2516.598047122608</v>
+        <v>3344.907921956004</v>
       </c>
       <c r="O35" t="n">
-        <v>3519.925986636534</v>
+        <v>4348.235861469931</v>
       </c>
       <c r="P35" t="n">
         <v>4367.992376873088</v>
@@ -6964,7 +6964,7 @@
         <v>5107.111724666206</v>
       </c>
       <c r="S35" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T35" t="n">
         <v>4807.200536626277</v>
@@ -6982,7 +6982,7 @@
         <v>3361.374580041301</v>
       </c>
       <c r="Y35" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="36">
@@ -7016,7 +7016,7 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J36" t="n">
-        <v>313.1883495026066</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K36" t="n">
         <v>1005.791940332991</v>
@@ -7025,7 +7025,7 @@
         <v>1021.752715327536</v>
       </c>
       <c r="M36" t="n">
-        <v>1040.378186925049</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N36" t="n">
         <v>1059.496619333927</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>855.5085325195032</v>
+        <v>1161.054609009582</v>
       </c>
       <c r="C37" t="n">
-        <v>682.9468210027281</v>
+        <v>988.4928974928065</v>
       </c>
       <c r="D37" t="n">
-        <v>517.0688282042508</v>
+        <v>822.6149046943292</v>
       </c>
       <c r="E37" t="n">
-        <v>517.0688282042508</v>
+        <v>652.8569009450664</v>
       </c>
       <c r="F37" t="n">
-        <v>407.0137567265109</v>
+        <v>476.1498469068226</v>
       </c>
       <c r="G37" t="n">
-        <v>241.4853604063525</v>
+        <v>310.6214505866643</v>
       </c>
       <c r="H37" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I37" t="n">
         <v>102.1422344933241</v>
@@ -7098,10 +7098,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K37" t="n">
-        <v>474.9974089600884</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L37" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M37" t="n">
         <v>1371.513837086632</v>
@@ -7113,34 +7113,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P37" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q37" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R37" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S37" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T37" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U37" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V37" t="n">
-        <v>1792.164981004678</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="W37" t="n">
-        <v>1520.13857659097</v>
+        <v>1825.684653081048</v>
       </c>
       <c r="X37" t="n">
-        <v>1274.746821924382</v>
+        <v>1580.292898414461</v>
       </c>
       <c r="Y37" t="n">
-        <v>1047.32715123849</v>
+        <v>1352.873227728569</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E38" t="n">
-        <v>1218.96188337221</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F38" t="n">
-        <v>791.0944537814171</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G38" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H38" t="n">
         <v>102.1422344933241</v>
@@ -7177,16 +7177,16 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.218789664405</v>
+        <v>571.4218927017964</v>
       </c>
       <c r="L38" t="n">
-        <v>2467.959557054138</v>
+        <v>1668.162660091529</v>
       </c>
       <c r="M38" t="n">
-        <v>2492.083625762057</v>
+        <v>2849.334564009999</v>
       </c>
       <c r="N38" t="n">
-        <v>2516.598047122608</v>
+        <v>2873.84898537055</v>
       </c>
       <c r="O38" t="n">
         <v>3519.925986636534</v>
@@ -7207,19 +7207,19 @@
         <v>4807.200536626277</v>
       </c>
       <c r="U38" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V38" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W38" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X38" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y38" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K39" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L39" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M39" t="n">
-        <v>1040.378186925049</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N39" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899293</v>
       </c>
       <c r="O39" t="n">
-        <v>1076.986249899104</v>
+        <v>545.304486855106</v>
       </c>
       <c r="P39" t="n">
         <v>1091.023220340725</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>855.5085325195032</v>
+        <v>1178.687535441156</v>
       </c>
       <c r="C40" t="n">
-        <v>682.9468210027281</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="D40" t="n">
-        <v>517.0688282042508</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E40" t="n">
-        <v>347.3108244549881</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F40" t="n">
-        <v>347.3108244549881</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G40" t="n">
-        <v>181.7824281348298</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I40" t="n">
         <v>102.1422344933241</v>
@@ -7335,10 +7335,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K40" t="n">
-        <v>474.9974089600884</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L40" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M40" t="n">
         <v>1371.513837086632</v>
@@ -7350,34 +7350,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P40" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q40" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R40" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S40" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T40" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U40" t="n">
-        <v>2079.120489134248</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="V40" t="n">
-        <v>1792.164981004678</v>
+        <v>2089.185120367317</v>
       </c>
       <c r="W40" t="n">
-        <v>1520.13857659097</v>
+        <v>1843.317579512622</v>
       </c>
       <c r="X40" t="n">
-        <v>1274.746821924382</v>
+        <v>1597.925824846035</v>
       </c>
       <c r="Y40" t="n">
-        <v>1047.32715123849</v>
+        <v>1370.506154160143</v>
       </c>
     </row>
     <row r="41">
@@ -7411,25 +7411,25 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J41" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K41" t="n">
-        <v>136.1672052488784</v>
+        <v>571.4218927017964</v>
       </c>
       <c r="L41" t="n">
-        <v>1232.907972638611</v>
+        <v>1668.162660091529</v>
       </c>
       <c r="M41" t="n">
-        <v>2414.079876557081</v>
+        <v>1692.286728799448</v>
       </c>
       <c r="N41" t="n">
-        <v>3564.325281354079</v>
+        <v>2842.532133596446</v>
       </c>
       <c r="O41" t="n">
-        <v>4567.653220868006</v>
+        <v>3845.860073110372</v>
       </c>
       <c r="P41" t="n">
-        <v>4914.491162831683</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q41" t="n">
         <v>4929.327483119182</v>
@@ -7499,13 +7499,13 @@
         <v>490.0709522835385</v>
       </c>
       <c r="M42" t="n">
-        <v>508.696423881051</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N42" t="n">
-        <v>527.8148562899291</v>
+        <v>527.8148562899293</v>
       </c>
       <c r="O42" t="n">
-        <v>545.3044868551059</v>
+        <v>545.304486855106</v>
       </c>
       <c r="P42" t="n">
         <v>1091.023220340725</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1178.687535441156</v>
+        <v>926.3901225091115</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.125823924381</v>
+        <v>753.8284109923364</v>
       </c>
       <c r="D43" t="n">
-        <v>840.2478311259033</v>
+        <v>587.9504181938592</v>
       </c>
       <c r="E43" t="n">
-        <v>670.4898273766405</v>
+        <v>418.1924144445964</v>
       </c>
       <c r="F43" t="n">
-        <v>493.7827733383967</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="G43" t="n">
-        <v>328.2543770182384</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H43" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I43" t="n">
         <v>102.1422344933241</v>
@@ -7572,10 +7572,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K43" t="n">
-        <v>474.9974089600884</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L43" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M43" t="n">
         <v>1371.513837086632</v>
@@ -7587,7 +7587,7 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P43" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q43" t="n">
         <v>2779.896976828331</v>
@@ -7599,22 +7599,22 @@
         <v>2621.751411578553</v>
       </c>
       <c r="T43" t="n">
-        <v>2376.140628496886</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U43" t="n">
         <v>2097.711057494756</v>
       </c>
       <c r="V43" t="n">
-        <v>1810.755549365186</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W43" t="n">
         <v>1538.729144951478</v>
       </c>
       <c r="X43" t="n">
-        <v>1293.33739028489</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y43" t="n">
-        <v>1293.33739028489</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="44">
@@ -7651,25 +7651,25 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K44" t="n">
-        <v>571.4218927017964</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L44" t="n">
-        <v>1668.162660091529</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M44" t="n">
-        <v>2849.334564009999</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N44" t="n">
-        <v>2873.84898537055</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O44" t="n">
-        <v>3877.176924884477</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P44" t="n">
-        <v>4725.24331512103</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q44" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R44" t="n">
         <v>5107.111724666206</v>
@@ -7730,25 +7730,25 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K45" t="n">
-        <v>1122.964718427331</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L45" t="n">
-        <v>1138.925493421876</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M45" t="n">
-        <v>1157.550965019389</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N45" t="n">
-        <v>1176.669397428267</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O45" t="n">
-        <v>1194.159027993443</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P45" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q45" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R45" t="n">
         <v>1762.882278270333</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>855.5085325195032</v>
+        <v>1065.917719598999</v>
       </c>
       <c r="C46" t="n">
-        <v>855.5085325195032</v>
+        <v>893.3560080822241</v>
       </c>
       <c r="D46" t="n">
-        <v>689.6305397210259</v>
+        <v>727.4780152837468</v>
       </c>
       <c r="E46" t="n">
-        <v>519.8725359717632</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F46" t="n">
         <v>493.7827733383967</v>
@@ -7809,10 +7809,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K46" t="n">
-        <v>474.9974089600884</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L46" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220553</v>
       </c>
       <c r="M46" t="n">
         <v>1371.513837086632</v>
@@ -7824,34 +7824,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P46" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q46" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R46" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S46" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T46" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U46" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V46" t="n">
-        <v>1792.164981004678</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W46" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X46" t="n">
-        <v>1274.746821924382</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y46" t="n">
-        <v>1047.32715123849</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8054,25 +8054,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888815</v>
+        <v>407.152590549595</v>
       </c>
       <c r="M3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,19 +8218,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8303,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8458,25 +8458,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>424.2958575201043</v>
@@ -8540,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="N9" t="n">
-        <v>79.31589866453203</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>223.4729892007681</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>501.2479710238148</v>
       </c>
       <c r="L11" t="n">
-        <v>1051.016738643728</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1009.572261883846</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>177.2793615553864</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9166,16 +9166,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>756.6928078575976</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>40.1603953005125</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>249.6543575333661</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>591.5883122080597</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>955.1780520956954</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>243.552926094193</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,19 +9725,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>191.1266951943802</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9880,13 +9880,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>135.9602724823108</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>505.4042372912361</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>78.79166586361225</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>537.052285903028</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>872.3620228455002</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>275.1861097043993</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>537.052285903028</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10591,19 +10591,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.016738643728</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>801.7742220584114</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10664,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>177.2793615553864</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>807.8756534975851</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>629.2209376993578</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>537.052285903028</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11077,10 +11077,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>330.3852793540609</v>
+        <v>507.4502912722814</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>537.0522859030278</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11299,13 +11299,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>362.0221338017263</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>655.4086274124622</v>
+        <v>537.0522859030277</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>137.9496946538981</v>
+        <v>58.60471309561056</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>181.9975182385378</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>77.6915291158666</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>77.00937577251435</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>145.0072293945746</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>58.38787496468203</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>130.7064558139249</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>44.14545391487162</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>126.6025667176709</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>18.124405881581</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>25.89727492342632</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40466267690321</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>215.6412237697654</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>58.38787496468184</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40466267690321</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S31" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>59.07711417248521</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>111.6421176837349</v>
       </c>
       <c r="D34" t="n">
-        <v>59.07711417248544</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.40466267690321</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S34" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>65.9854627348988</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>17.45659716725834</v>
       </c>
       <c r="I37" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>59.10590294880755</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>25.89727492342325</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>76.39707623649976</v>
+        <v>51.76811141280848</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.40466267690321</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>111.6421176837349</v>
       </c>
       <c r="F46" t="n">
-        <v>149.1111184908285</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631568.2838929733</v>
+        <v>631568.2838929731</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>631568.2838929732</v>
+        <v>631568.2838929731</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>631568.2838929731</v>
+        <v>631568.2838929732</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>631568.2838929733</v>
+        <v>631568.2838929731</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>631568.2838929731</v>
+        <v>631568.2838929732</v>
       </c>
     </row>
     <row r="15">
@@ -26316,43 +26316,43 @@
         <v>428917.8559123269</v>
       </c>
       <c r="C2" t="n">
-        <v>428917.8559123267</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="D2" t="n">
-        <v>428917.8559123268</v>
+        <v>428917.855912327</v>
       </c>
       <c r="E2" t="n">
-        <v>422774.8694247919</v>
+        <v>422774.869424792</v>
       </c>
       <c r="F2" t="n">
+        <v>422774.8694247922</v>
+      </c>
+      <c r="G2" t="n">
+        <v>422774.8694247922</v>
+      </c>
+      <c r="H2" t="n">
+        <v>422774.8694247922</v>
+      </c>
+      <c r="I2" t="n">
+        <v>422774.8694247922</v>
+      </c>
+      <c r="J2" t="n">
+        <v>422774.869424792</v>
+      </c>
+      <c r="K2" t="n">
         <v>422774.8694247921</v>
       </c>
-      <c r="G2" t="n">
-        <v>422774.869424792</v>
-      </c>
-      <c r="H2" t="n">
-        <v>422774.8694247919</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>422774.8694247921</v>
       </c>
-      <c r="J2" t="n">
-        <v>422774.8694247919</v>
-      </c>
-      <c r="K2" t="n">
-        <v>422774.869424792</v>
-      </c>
-      <c r="L2" t="n">
-        <v>422774.8694247919</v>
-      </c>
       <c r="M2" t="n">
-        <v>422774.8694247919</v>
+        <v>422774.8694247922</v>
       </c>
       <c r="N2" t="n">
-        <v>422774.8694247919</v>
+        <v>422774.8694247922</v>
       </c>
       <c r="O2" t="n">
-        <v>422774.869424792</v>
+        <v>422774.8694247921</v>
       </c>
       <c r="P2" t="n">
         <v>422774.8694247919</v>
@@ -26490,7 +26490,7 @@
         <v>78380.64252189653</v>
       </c>
       <c r="I5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189655</v>
       </c>
       <c r="J5" t="n">
         <v>78380.64252189652</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3187.792107876761</v>
+        <v>-3187.79210787679</v>
       </c>
       <c r="C6" t="n">
-        <v>139003.5085518329</v>
+        <v>139003.508551833</v>
       </c>
       <c r="D6" t="n">
-        <v>139003.5085518331</v>
+        <v>139003.5085518332</v>
       </c>
       <c r="E6" t="n">
-        <v>-68202.76235284831</v>
+        <v>-68221.9591856218</v>
       </c>
       <c r="F6" t="n">
-        <v>214063.4079320296</v>
+        <v>214044.2110992562</v>
       </c>
       <c r="G6" t="n">
-        <v>214063.4079320296</v>
+        <v>214044.2110992563</v>
       </c>
       <c r="H6" t="n">
-        <v>214063.4079320296</v>
+        <v>214044.2110992562</v>
       </c>
       <c r="I6" t="n">
-        <v>214063.4079320296</v>
+        <v>214044.2110992562</v>
       </c>
       <c r="J6" t="n">
-        <v>103048.9425870394</v>
+        <v>103029.745754266</v>
       </c>
       <c r="K6" t="n">
-        <v>214063.4079320296</v>
+        <v>214044.2110992562</v>
       </c>
       <c r="L6" t="n">
-        <v>214063.4079320295</v>
+        <v>214044.2110992562</v>
       </c>
       <c r="M6" t="n">
-        <v>1621.465251040237</v>
+        <v>1602.268418266939</v>
       </c>
       <c r="N6" t="n">
-        <v>214063.4079320295</v>
+        <v>214044.2110992563</v>
       </c>
       <c r="O6" t="n">
-        <v>214063.4079320296</v>
+        <v>214044.2110992562</v>
       </c>
       <c r="P6" t="n">
-        <v>214063.4079320296</v>
+        <v>214044.211099256</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
       <c r="F3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
       <c r="G3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
       <c r="H3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
       <c r="I3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
       <c r="J3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
       <c r="K3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
       <c r="L3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
       <c r="M3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
       <c r="N3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
       <c r="O3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
       <c r="P3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.520381053679</v>
+        <v>34.52038105367906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>189.7010470627606</v>
+        <v>257.0094541093239</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>242.7488006963927</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>32.99593966181425</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>208.7807387405555</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>46.33112671891371</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27681,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>98.87303715774271</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>212.6305507827212</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>336.7960407711624</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>32.7203195283771</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -28031,7 +28031,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>172.7922586562668</v>
       </c>
       <c r="V10" t="n">
-        <v>7.113694089549938</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29477,7 +29477,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-3.393552105990239e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.13877540122082</v>
+        <v>0.1387754012208202</v>
       </c>
       <c r="H11" t="n">
-        <v>1.421233577752723</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I11" t="n">
-        <v>5.350138655565669</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J11" t="n">
-        <v>11.77838870936558</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K11" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L11" t="n">
-        <v>21.89979912815457</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M11" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244445</v>
+        <v>23.38209388244449</v>
       </c>
       <c r="P11" t="n">
-        <v>19.95607616480546</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R11" t="n">
-        <v>8.717350296937342</v>
+        <v>8.717350296937356</v>
       </c>
       <c r="S11" t="n">
-        <v>3.162344455319439</v>
+        <v>3.162344455319444</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6074893188441399</v>
+        <v>0.6074893188441409</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0111020320976656</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07425138566263031</v>
+        <v>0.07425138566263044</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7171120667943507</v>
+        <v>0.7171120667943519</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257543</v>
+        <v>7.015127625257555</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465377</v>
+        <v>11.98997046465379</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398471</v>
+        <v>16.12199494398473</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775577</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017856</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184034</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040318</v>
+        <v>9.478124247040334</v>
       </c>
       <c r="R12" t="n">
-        <v>4.610099190527172</v>
+        <v>4.610099190527179</v>
       </c>
       <c r="S12" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004884959583067785</v>
+        <v>0.004884959583067793</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06224986747384737</v>
+        <v>0.06224986747384748</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5534579126311162</v>
+        <v>0.5534579126311171</v>
       </c>
       <c r="I13" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J13" t="n">
-        <v>4.40106563040101</v>
+        <v>4.401065630401017</v>
       </c>
       <c r="K13" t="n">
-        <v>7.232302784688811</v>
+        <v>7.232302784688824</v>
       </c>
       <c r="L13" t="n">
-        <v>9.254857569702729</v>
+        <v>9.254857569702743</v>
       </c>
       <c r="M13" t="n">
-        <v>9.757949680468638</v>
+        <v>9.757949680468654</v>
       </c>
       <c r="N13" t="n">
-        <v>9.525927447157033</v>
+        <v>9.525927447157049</v>
       </c>
       <c r="O13" t="n">
-        <v>8.798735813485267</v>
+        <v>8.798735813485282</v>
       </c>
       <c r="P13" t="n">
-        <v>7.528838517018774</v>
+        <v>7.528838517018786</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105538</v>
       </c>
       <c r="R13" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778632</v>
       </c>
       <c r="S13" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703323</v>
       </c>
       <c r="T13" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791664</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003395447316755315</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.13877540122082</v>
+        <v>0.1387754012208202</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421233577752723</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I14" t="n">
-        <v>5.350138655565669</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J14" t="n">
-        <v>11.77838870936558</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K14" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815457</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M14" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N14" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244445</v>
+        <v>23.38209388244449</v>
       </c>
       <c r="P14" t="n">
-        <v>19.95607616480546</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937342</v>
+        <v>8.717350296937356</v>
       </c>
       <c r="S14" t="n">
-        <v>3.162344455319439</v>
+        <v>3.162344455319444</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6074893188441399</v>
+        <v>0.6074893188441409</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0111020320976656</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07425138566263031</v>
+        <v>0.07425138566263044</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7171120667943507</v>
+        <v>0.7171120667943519</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257543</v>
+        <v>7.015127625257555</v>
       </c>
       <c r="K15" t="n">
-        <v>11.98997046465377</v>
+        <v>11.98997046465379</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398471</v>
+        <v>16.12199494398473</v>
       </c>
       <c r="M15" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775577</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017856</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184034</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.478124247040318</v>
+        <v>9.478124247040334</v>
       </c>
       <c r="R15" t="n">
-        <v>4.610099190527172</v>
+        <v>4.610099190527179</v>
       </c>
       <c r="S15" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004884959583067785</v>
+        <v>0.004884959583067793</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06224986747384737</v>
+        <v>0.06224986747384748</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5534579126311162</v>
+        <v>0.5534579126311171</v>
       </c>
       <c r="I16" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J16" t="n">
-        <v>4.40106563040101</v>
+        <v>4.401065630401017</v>
       </c>
       <c r="K16" t="n">
-        <v>7.232302784688811</v>
+        <v>7.232302784688824</v>
       </c>
       <c r="L16" t="n">
-        <v>9.254857569702729</v>
+        <v>9.254857569702743</v>
       </c>
       <c r="M16" t="n">
-        <v>9.757949680468638</v>
+        <v>9.757949680468654</v>
       </c>
       <c r="N16" t="n">
-        <v>9.525927447157033</v>
+        <v>9.525927447157049</v>
       </c>
       <c r="O16" t="n">
-        <v>8.798735813485267</v>
+        <v>8.798735813485282</v>
       </c>
       <c r="P16" t="n">
-        <v>7.528838517018774</v>
+        <v>7.528838517018786</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105538</v>
       </c>
       <c r="R16" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778632</v>
       </c>
       <c r="S16" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703323</v>
       </c>
       <c r="T16" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791664</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003395447316755315</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.13877540122082</v>
+        <v>0.1387754012208202</v>
       </c>
       <c r="H17" t="n">
-        <v>1.421233577752723</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I17" t="n">
-        <v>5.350138655565669</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J17" t="n">
-        <v>11.77838870936558</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K17" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L17" t="n">
-        <v>21.89979912815457</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M17" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N17" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244445</v>
+        <v>23.38209388244449</v>
       </c>
       <c r="P17" t="n">
-        <v>19.95607616480546</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937342</v>
+        <v>8.717350296937356</v>
       </c>
       <c r="S17" t="n">
-        <v>3.162344455319439</v>
+        <v>3.162344455319444</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6074893188441399</v>
+        <v>0.6074893188441409</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0111020320976656</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07425138566263031</v>
+        <v>0.07425138566263044</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7171120667943507</v>
+        <v>0.7171120667943519</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257543</v>
+        <v>7.015127625257555</v>
       </c>
       <c r="K18" t="n">
-        <v>11.98997046465377</v>
+        <v>11.98997046465379</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398471</v>
+        <v>16.12199494398473</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N18" t="n">
-        <v>19.31154788775577</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O18" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017856</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184034</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040318</v>
+        <v>9.478124247040334</v>
       </c>
       <c r="R18" t="n">
-        <v>4.610099190527172</v>
+        <v>4.610099190527179</v>
       </c>
       <c r="S18" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004884959583067785</v>
+        <v>0.004884959583067793</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06224986747384737</v>
+        <v>0.06224986747384748</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5534579126311162</v>
+        <v>0.5534579126311171</v>
       </c>
       <c r="I19" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J19" t="n">
-        <v>4.40106563040101</v>
+        <v>4.401065630401017</v>
       </c>
       <c r="K19" t="n">
-        <v>7.232302784688811</v>
+        <v>7.232302784688824</v>
       </c>
       <c r="L19" t="n">
-        <v>9.254857569702729</v>
+        <v>9.254857569702743</v>
       </c>
       <c r="M19" t="n">
-        <v>9.757949680468638</v>
+        <v>9.757949680468654</v>
       </c>
       <c r="N19" t="n">
-        <v>9.525927447157033</v>
+        <v>9.525927447157049</v>
       </c>
       <c r="O19" t="n">
-        <v>8.798735813485267</v>
+        <v>8.798735813485282</v>
       </c>
       <c r="P19" t="n">
-        <v>7.528838517018774</v>
+        <v>7.528838517018786</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105538</v>
       </c>
       <c r="R19" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778632</v>
       </c>
       <c r="S19" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703323</v>
       </c>
       <c r="T19" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791664</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003395447316755315</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.13877540122082</v>
+        <v>0.1387754012208202</v>
       </c>
       <c r="H20" t="n">
-        <v>1.421233577752723</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I20" t="n">
-        <v>5.350138655565669</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J20" t="n">
-        <v>11.77838870936558</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K20" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L20" t="n">
-        <v>21.89979912815457</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M20" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N20" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244445</v>
+        <v>23.38209388244449</v>
       </c>
       <c r="P20" t="n">
-        <v>19.95607616480546</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937342</v>
+        <v>8.717350296937356</v>
       </c>
       <c r="S20" t="n">
-        <v>3.162344455319439</v>
+        <v>3.162344455319444</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6074893188441399</v>
+        <v>0.6074893188441409</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0111020320976656</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07425138566263031</v>
+        <v>0.07425138566263044</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7171120667943507</v>
+        <v>0.7171120667943519</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257543</v>
+        <v>7.015127625257555</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465377</v>
+        <v>11.98997046465379</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398471</v>
+        <v>16.12199494398473</v>
       </c>
       <c r="M21" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775577</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017856</v>
       </c>
       <c r="P21" t="n">
-        <v>14.17875802184034</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040318</v>
+        <v>9.478124247040334</v>
       </c>
       <c r="R21" t="n">
-        <v>4.610099190527172</v>
+        <v>4.610099190527179</v>
       </c>
       <c r="S21" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004884959583067785</v>
+        <v>0.004884959583067793</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06224986747384737</v>
+        <v>0.06224986747384748</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5534579126311162</v>
+        <v>0.5534579126311171</v>
       </c>
       <c r="I22" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J22" t="n">
-        <v>4.40106563040101</v>
+        <v>4.401065630401017</v>
       </c>
       <c r="K22" t="n">
-        <v>7.232302784688811</v>
+        <v>7.232302784688824</v>
       </c>
       <c r="L22" t="n">
-        <v>9.254857569702729</v>
+        <v>9.254857569702743</v>
       </c>
       <c r="M22" t="n">
-        <v>9.757949680468638</v>
+        <v>9.757949680468654</v>
       </c>
       <c r="N22" t="n">
-        <v>9.525927447157033</v>
+        <v>9.525927447157049</v>
       </c>
       <c r="O22" t="n">
-        <v>8.798735813485267</v>
+        <v>8.798735813485282</v>
       </c>
       <c r="P22" t="n">
-        <v>7.528838517018774</v>
+        <v>7.528838517018786</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105538</v>
       </c>
       <c r="R22" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778632</v>
       </c>
       <c r="S22" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703323</v>
       </c>
       <c r="T22" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791664</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003395447316755315</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.13877540122082</v>
+        <v>0.1387754012208202</v>
       </c>
       <c r="H23" t="n">
-        <v>1.421233577752723</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I23" t="n">
-        <v>5.350138655565669</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936558</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K23" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L23" t="n">
-        <v>21.89979912815457</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M23" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N23" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O23" t="n">
-        <v>23.38209388244445</v>
+        <v>23.38209388244449</v>
       </c>
       <c r="P23" t="n">
-        <v>19.95607616480546</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937342</v>
+        <v>8.717350296937356</v>
       </c>
       <c r="S23" t="n">
-        <v>3.162344455319439</v>
+        <v>3.162344455319444</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6074893188441399</v>
+        <v>0.6074893188441409</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0111020320976656</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07425138566263031</v>
+        <v>0.07425138566263044</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7171120667943507</v>
+        <v>0.7171120667943519</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257543</v>
+        <v>7.015127625257555</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465377</v>
+        <v>11.98997046465379</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398471</v>
+        <v>16.12199494398473</v>
       </c>
       <c r="M24" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775577</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017856</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184034</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040318</v>
+        <v>9.478124247040334</v>
       </c>
       <c r="R24" t="n">
-        <v>4.610099190527172</v>
+        <v>4.610099190527179</v>
       </c>
       <c r="S24" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004884959583067785</v>
+        <v>0.004884959583067793</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06224986747384737</v>
+        <v>0.06224986747384748</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5534579126311162</v>
+        <v>0.5534579126311171</v>
       </c>
       <c r="I25" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J25" t="n">
-        <v>4.40106563040101</v>
+        <v>4.401065630401017</v>
       </c>
       <c r="K25" t="n">
-        <v>7.232302784688811</v>
+        <v>7.232302784688824</v>
       </c>
       <c r="L25" t="n">
-        <v>9.254857569702729</v>
+        <v>9.254857569702743</v>
       </c>
       <c r="M25" t="n">
-        <v>9.757949680468638</v>
+        <v>9.757949680468654</v>
       </c>
       <c r="N25" t="n">
-        <v>9.525927447157033</v>
+        <v>9.525927447157049</v>
       </c>
       <c r="O25" t="n">
-        <v>8.798735813485267</v>
+        <v>8.798735813485282</v>
       </c>
       <c r="P25" t="n">
-        <v>7.528838517018774</v>
+        <v>7.528838517018786</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105538</v>
       </c>
       <c r="R25" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778632</v>
       </c>
       <c r="S25" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703323</v>
       </c>
       <c r="T25" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791664</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003395447316755315</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.13877540122082</v>
+        <v>0.1387754012208202</v>
       </c>
       <c r="H26" t="n">
-        <v>1.421233577752723</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I26" t="n">
-        <v>5.350138655565669</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J26" t="n">
-        <v>11.77838870936558</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K26" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L26" t="n">
-        <v>21.89979912815457</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O26" t="n">
-        <v>23.38209388244445</v>
+        <v>23.38209388244449</v>
       </c>
       <c r="P26" t="n">
-        <v>19.95607616480546</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937342</v>
+        <v>8.717350296937356</v>
       </c>
       <c r="S26" t="n">
-        <v>3.162344455319439</v>
+        <v>3.162344455319444</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6074893188441399</v>
+        <v>0.6074893188441409</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0111020320976656</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07425138566263031</v>
+        <v>0.07425138566263044</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7171120667943507</v>
+        <v>0.7171120667943519</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257543</v>
+        <v>7.015127625257555</v>
       </c>
       <c r="K27" t="n">
-        <v>11.98997046465377</v>
+        <v>11.98997046465379</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398471</v>
+        <v>16.12199494398473</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775577</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O27" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017856</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184034</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040318</v>
+        <v>9.478124247040334</v>
       </c>
       <c r="R27" t="n">
-        <v>4.610099190527172</v>
+        <v>4.610099190527179</v>
       </c>
       <c r="S27" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004884959583067785</v>
+        <v>0.004884959583067793</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06224986747384737</v>
+        <v>0.06224986747384748</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5534579126311162</v>
+        <v>0.5534579126311171</v>
       </c>
       <c r="I28" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J28" t="n">
-        <v>4.40106563040101</v>
+        <v>4.401065630401017</v>
       </c>
       <c r="K28" t="n">
-        <v>7.232302784688811</v>
+        <v>7.232302784688824</v>
       </c>
       <c r="L28" t="n">
-        <v>9.254857569702729</v>
+        <v>9.254857569702743</v>
       </c>
       <c r="M28" t="n">
-        <v>9.757949680468638</v>
+        <v>9.757949680468654</v>
       </c>
       <c r="N28" t="n">
-        <v>9.525927447157033</v>
+        <v>9.525927447157049</v>
       </c>
       <c r="O28" t="n">
-        <v>8.798735813485267</v>
+        <v>8.798735813485282</v>
       </c>
       <c r="P28" t="n">
-        <v>7.528838517018774</v>
+        <v>7.528838517018786</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105538</v>
       </c>
       <c r="R28" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778632</v>
       </c>
       <c r="S28" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703323</v>
       </c>
       <c r="T28" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791664</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003395447316755315</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.13877540122082</v>
+        <v>0.1387754012208202</v>
       </c>
       <c r="H29" t="n">
-        <v>1.421233577752723</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I29" t="n">
-        <v>5.350138655565669</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J29" t="n">
-        <v>11.77838870936558</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K29" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L29" t="n">
-        <v>21.89979912815457</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M29" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N29" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O29" t="n">
-        <v>23.38209388244445</v>
+        <v>23.38209388244449</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480546</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937342</v>
+        <v>8.717350296937356</v>
       </c>
       <c r="S29" t="n">
-        <v>3.162344455319439</v>
+        <v>3.162344455319444</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6074893188441399</v>
+        <v>0.6074893188441409</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0111020320976656</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07425138566263031</v>
+        <v>0.07425138566263044</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7171120667943507</v>
+        <v>0.7171120667943519</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257543</v>
+        <v>7.015127625257555</v>
       </c>
       <c r="K30" t="n">
-        <v>11.98997046465377</v>
+        <v>11.98997046465379</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398471</v>
+        <v>16.12199494398473</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775577</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017856</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184034</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040318</v>
+        <v>9.478124247040334</v>
       </c>
       <c r="R30" t="n">
-        <v>4.610099190527172</v>
+        <v>4.610099190527179</v>
       </c>
       <c r="S30" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004884959583067785</v>
+        <v>0.004884959583067793</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06224986747384737</v>
+        <v>0.06224986747384748</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5534579126311162</v>
+        <v>0.5534579126311171</v>
       </c>
       <c r="I31" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J31" t="n">
-        <v>4.40106563040101</v>
+        <v>4.401065630401017</v>
       </c>
       <c r="K31" t="n">
-        <v>7.232302784688811</v>
+        <v>7.232302784688824</v>
       </c>
       <c r="L31" t="n">
-        <v>9.254857569702729</v>
+        <v>9.254857569702743</v>
       </c>
       <c r="M31" t="n">
-        <v>9.757949680468638</v>
+        <v>9.757949680468654</v>
       </c>
       <c r="N31" t="n">
-        <v>9.525927447157033</v>
+        <v>9.525927447157049</v>
       </c>
       <c r="O31" t="n">
-        <v>8.798735813485267</v>
+        <v>8.798735813485282</v>
       </c>
       <c r="P31" t="n">
-        <v>7.528838517018774</v>
+        <v>7.528838517018786</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105538</v>
       </c>
       <c r="R31" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778632</v>
       </c>
       <c r="S31" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703323</v>
       </c>
       <c r="T31" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791664</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003395447316755315</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.13877540122082</v>
+        <v>0.1387754012208202</v>
       </c>
       <c r="H32" t="n">
-        <v>1.421233577752723</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I32" t="n">
-        <v>5.350138655565669</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936558</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K32" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L32" t="n">
-        <v>21.89979912815457</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M32" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N32" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244445</v>
+        <v>23.38209388244449</v>
       </c>
       <c r="P32" t="n">
-        <v>19.95607616480546</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937342</v>
+        <v>8.717350296937356</v>
       </c>
       <c r="S32" t="n">
-        <v>3.162344455319439</v>
+        <v>3.162344455319444</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6074893188441399</v>
+        <v>0.6074893188441409</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0111020320976656</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07425138566263031</v>
+        <v>0.07425138566263044</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7171120667943507</v>
+        <v>0.7171120667943519</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257543</v>
+        <v>7.015127625257555</v>
       </c>
       <c r="K33" t="n">
-        <v>11.98997046465377</v>
+        <v>11.98997046465379</v>
       </c>
       <c r="L33" t="n">
-        <v>16.12199494398471</v>
+        <v>16.12199494398473</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775577</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017856</v>
       </c>
       <c r="P33" t="n">
-        <v>14.17875802184034</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040318</v>
+        <v>9.478124247040334</v>
       </c>
       <c r="R33" t="n">
-        <v>4.610099190527172</v>
+        <v>4.610099190527179</v>
       </c>
       <c r="S33" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004884959583067785</v>
+        <v>0.004884959583067793</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06224986747384737</v>
+        <v>0.06224986747384748</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5534579126311162</v>
+        <v>0.5534579126311171</v>
       </c>
       <c r="I34" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J34" t="n">
-        <v>4.40106563040101</v>
+        <v>4.401065630401017</v>
       </c>
       <c r="K34" t="n">
-        <v>7.232302784688811</v>
+        <v>7.232302784688824</v>
       </c>
       <c r="L34" t="n">
-        <v>9.254857569702729</v>
+        <v>9.254857569702743</v>
       </c>
       <c r="M34" t="n">
-        <v>9.757949680468638</v>
+        <v>9.757949680468654</v>
       </c>
       <c r="N34" t="n">
-        <v>9.525927447157033</v>
+        <v>9.525927447157049</v>
       </c>
       <c r="O34" t="n">
-        <v>8.798735813485267</v>
+        <v>8.798735813485282</v>
       </c>
       <c r="P34" t="n">
-        <v>7.528838517018774</v>
+        <v>7.528838517018786</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105538</v>
       </c>
       <c r="R34" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778632</v>
       </c>
       <c r="S34" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703323</v>
       </c>
       <c r="T34" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791664</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003395447316755315</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.13877540122082</v>
+        <v>0.1387754012208202</v>
       </c>
       <c r="H35" t="n">
-        <v>1.421233577752723</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I35" t="n">
-        <v>5.350138655565669</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J35" t="n">
-        <v>11.77838870936558</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K35" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815457</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M35" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244445</v>
+        <v>23.38209388244449</v>
       </c>
       <c r="P35" t="n">
-        <v>19.95607616480546</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937342</v>
+        <v>8.717350296937356</v>
       </c>
       <c r="S35" t="n">
-        <v>3.162344455319439</v>
+        <v>3.162344455319444</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6074893188441399</v>
+        <v>0.6074893188441409</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0111020320976656</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07425138566263031</v>
+        <v>0.07425138566263044</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7171120667943507</v>
+        <v>0.7171120667943519</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257543</v>
+        <v>7.015127625257555</v>
       </c>
       <c r="K36" t="n">
-        <v>11.98997046465377</v>
+        <v>11.98997046465379</v>
       </c>
       <c r="L36" t="n">
-        <v>16.12199494398471</v>
+        <v>16.12199494398473</v>
       </c>
       <c r="M36" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775577</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O36" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017856</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184034</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040318</v>
+        <v>9.478124247040334</v>
       </c>
       <c r="R36" t="n">
-        <v>4.610099190527172</v>
+        <v>4.610099190527179</v>
       </c>
       <c r="S36" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004884959583067785</v>
+        <v>0.004884959583067793</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06224986747384737</v>
+        <v>0.06224986747384748</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5534579126311162</v>
+        <v>0.5534579126311171</v>
       </c>
       <c r="I37" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J37" t="n">
-        <v>4.40106563040101</v>
+        <v>4.401065630401017</v>
       </c>
       <c r="K37" t="n">
-        <v>7.232302784688811</v>
+        <v>7.232302784688824</v>
       </c>
       <c r="L37" t="n">
-        <v>9.254857569702729</v>
+        <v>9.254857569702743</v>
       </c>
       <c r="M37" t="n">
-        <v>9.757949680468638</v>
+        <v>9.757949680468654</v>
       </c>
       <c r="N37" t="n">
-        <v>9.525927447157033</v>
+        <v>9.525927447157049</v>
       </c>
       <c r="O37" t="n">
-        <v>8.798735813485267</v>
+        <v>8.798735813485282</v>
       </c>
       <c r="P37" t="n">
-        <v>7.528838517018774</v>
+        <v>7.528838517018786</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105538</v>
       </c>
       <c r="R37" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778632</v>
       </c>
       <c r="S37" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703323</v>
       </c>
       <c r="T37" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791664</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003395447316755315</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.13877540122082</v>
+        <v>0.1387754012208202</v>
       </c>
       <c r="H38" t="n">
-        <v>1.421233577752723</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I38" t="n">
-        <v>5.350138655565669</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936558</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K38" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L38" t="n">
-        <v>21.89979912815457</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N38" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O38" t="n">
-        <v>23.38209388244445</v>
+        <v>23.38209388244449</v>
       </c>
       <c r="P38" t="n">
-        <v>19.95607616480546</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R38" t="n">
-        <v>8.717350296937342</v>
+        <v>8.717350296937356</v>
       </c>
       <c r="S38" t="n">
-        <v>3.162344455319439</v>
+        <v>3.162344455319444</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6074893188441399</v>
+        <v>0.6074893188441409</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0111020320976656</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07425138566263031</v>
+        <v>0.07425138566263044</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7171120667943507</v>
+        <v>0.7171120667943519</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J39" t="n">
-        <v>7.015127625257543</v>
+        <v>7.015127625257555</v>
       </c>
       <c r="K39" t="n">
-        <v>11.98997046465377</v>
+        <v>11.98997046465379</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398471</v>
+        <v>16.12199494398473</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775577</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O39" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017856</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184034</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040318</v>
+        <v>9.478124247040334</v>
       </c>
       <c r="R39" t="n">
-        <v>4.610099190527172</v>
+        <v>4.610099190527179</v>
       </c>
       <c r="S39" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004884959583067785</v>
+        <v>0.004884959583067793</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06224986747384737</v>
+        <v>0.06224986747384748</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5534579126311162</v>
+        <v>0.5534579126311171</v>
       </c>
       <c r="I40" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J40" t="n">
-        <v>4.40106563040101</v>
+        <v>4.401065630401017</v>
       </c>
       <c r="K40" t="n">
-        <v>7.232302784688811</v>
+        <v>7.232302784688824</v>
       </c>
       <c r="L40" t="n">
-        <v>9.254857569702729</v>
+        <v>9.254857569702743</v>
       </c>
       <c r="M40" t="n">
-        <v>9.757949680468638</v>
+        <v>9.757949680468654</v>
       </c>
       <c r="N40" t="n">
-        <v>9.525927447157033</v>
+        <v>9.525927447157049</v>
       </c>
       <c r="O40" t="n">
-        <v>8.798735813485267</v>
+        <v>8.798735813485282</v>
       </c>
       <c r="P40" t="n">
-        <v>7.528838517018774</v>
+        <v>7.528838517018786</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105538</v>
       </c>
       <c r="R40" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778632</v>
       </c>
       <c r="S40" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703323</v>
       </c>
       <c r="T40" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791664</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003395447316755315</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.13877540122082</v>
+        <v>0.1387754012208202</v>
       </c>
       <c r="H41" t="n">
-        <v>1.421233577752723</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I41" t="n">
-        <v>5.350138655565669</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936558</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K41" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L41" t="n">
-        <v>21.89979912815457</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M41" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N41" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244445</v>
+        <v>23.38209388244449</v>
       </c>
       <c r="P41" t="n">
-        <v>19.95607616480546</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937342</v>
+        <v>8.717350296937356</v>
       </c>
       <c r="S41" t="n">
-        <v>3.162344455319439</v>
+        <v>3.162344455319444</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6074893188441399</v>
+        <v>0.6074893188441409</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0111020320976656</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07425138566263031</v>
+        <v>0.07425138566263044</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7171120667943507</v>
+        <v>0.7171120667943519</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257543</v>
+        <v>7.015127625257555</v>
       </c>
       <c r="K42" t="n">
-        <v>11.98997046465377</v>
+        <v>11.98997046465379</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12199494398471</v>
+        <v>16.12199494398473</v>
       </c>
       <c r="M42" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775577</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017856</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184034</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.478124247040318</v>
+        <v>9.478124247040334</v>
       </c>
       <c r="R42" t="n">
-        <v>4.610099190527172</v>
+        <v>4.610099190527179</v>
       </c>
       <c r="S42" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004884959583067785</v>
+        <v>0.004884959583067793</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06224986747384737</v>
+        <v>0.06224986747384748</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5534579126311162</v>
+        <v>0.5534579126311171</v>
       </c>
       <c r="I43" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J43" t="n">
-        <v>4.40106563040101</v>
+        <v>4.401065630401017</v>
       </c>
       <c r="K43" t="n">
-        <v>7.232302784688811</v>
+        <v>7.232302784688824</v>
       </c>
       <c r="L43" t="n">
-        <v>9.254857569702729</v>
+        <v>9.254857569702743</v>
       </c>
       <c r="M43" t="n">
-        <v>9.757949680468638</v>
+        <v>9.757949680468654</v>
       </c>
       <c r="N43" t="n">
-        <v>9.525927447157033</v>
+        <v>9.525927447157049</v>
       </c>
       <c r="O43" t="n">
-        <v>8.798735813485267</v>
+        <v>8.798735813485282</v>
       </c>
       <c r="P43" t="n">
-        <v>7.528838517018774</v>
+        <v>7.528838517018786</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105538</v>
       </c>
       <c r="R43" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778632</v>
       </c>
       <c r="S43" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703323</v>
       </c>
       <c r="T43" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791664</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003395447316755315</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.13877540122082</v>
+        <v>0.1387754012208202</v>
       </c>
       <c r="H44" t="n">
-        <v>1.421233577752723</v>
+        <v>1.421233577752726</v>
       </c>
       <c r="I44" t="n">
-        <v>5.350138655565669</v>
+        <v>5.350138655565678</v>
       </c>
       <c r="J44" t="n">
-        <v>11.77838870936558</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K44" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304293</v>
       </c>
       <c r="L44" t="n">
-        <v>21.89979912815457</v>
+        <v>21.89979912815461</v>
       </c>
       <c r="M44" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961537</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833403</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244445</v>
+        <v>23.38209388244449</v>
       </c>
       <c r="P44" t="n">
-        <v>19.95607616480546</v>
+        <v>19.95607616480549</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858486</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937342</v>
+        <v>8.717350296937356</v>
       </c>
       <c r="S44" t="n">
-        <v>3.162344455319439</v>
+        <v>3.162344455319444</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6074893188441399</v>
+        <v>0.6074893188441409</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0111020320976656</v>
+        <v>0.01110203209766562</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07425138566263031</v>
+        <v>0.07425138566263044</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7171120667943507</v>
+        <v>0.7171120667943519</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805478</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257543</v>
+        <v>7.015127625257555</v>
       </c>
       <c r="K45" t="n">
-        <v>11.98997046465377</v>
+        <v>11.98997046465379</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398471</v>
+        <v>16.12199494398473</v>
       </c>
       <c r="M45" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N45" t="n">
-        <v>19.31154788775577</v>
+        <v>19.3115478877558</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017856</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184034</v>
+        <v>14.17875802184037</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.478124247040318</v>
+        <v>9.478124247040334</v>
       </c>
       <c r="R45" t="n">
-        <v>4.610099190527172</v>
+        <v>4.610099190527179</v>
       </c>
       <c r="S45" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286139</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559533</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004884959583067785</v>
+        <v>0.004884959583067793</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06224986747384737</v>
+        <v>0.06224986747384748</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5534579126311162</v>
+        <v>0.5534579126311171</v>
       </c>
       <c r="I46" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304432</v>
       </c>
       <c r="J46" t="n">
-        <v>4.40106563040101</v>
+        <v>4.401065630401017</v>
       </c>
       <c r="K46" t="n">
-        <v>7.232302784688811</v>
+        <v>7.232302784688824</v>
       </c>
       <c r="L46" t="n">
-        <v>9.254857569702729</v>
+        <v>9.254857569702743</v>
       </c>
       <c r="M46" t="n">
-        <v>9.757949680468638</v>
+        <v>9.757949680468654</v>
       </c>
       <c r="N46" t="n">
-        <v>9.525927447157033</v>
+        <v>9.525927447157049</v>
       </c>
       <c r="O46" t="n">
-        <v>8.798735813485267</v>
+        <v>8.798735813485282</v>
       </c>
       <c r="P46" t="n">
-        <v>7.528838517018774</v>
+        <v>7.528838517018786</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105538</v>
       </c>
       <c r="R46" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778632</v>
       </c>
       <c r="S46" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703323</v>
       </c>
       <c r="T46" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791664</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003395447316755315</v>
+        <v>0.003395447316755321</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34774,25 +34774,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888815</v>
+        <v>407.152590549595</v>
       </c>
       <c r="M3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35178,25 +35178,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>424.2958575201043</v>
@@ -35260,10 +35260,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="N9" t="n">
-        <v>79.31589866453203</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>223.4729892007681</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.937517176434271</v>
+        <v>4.93751717643428</v>
       </c>
       <c r="J11" t="n">
-        <v>451.4295881567574</v>
+        <v>11.7783887093656</v>
       </c>
       <c r="K11" t="n">
-        <v>860.4308241280712</v>
+        <v>518.9007224668577</v>
       </c>
       <c r="L11" t="n">
-        <v>1072.916537771883</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M11" t="n">
-        <v>24.3677461696152</v>
+        <v>1193.10293325098</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833415</v>
+        <v>1161.864045249493</v>
       </c>
       <c r="O11" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P11" t="n">
-        <v>856.6327174106605</v>
+        <v>19.95607616480538</v>
       </c>
       <c r="Q11" t="n">
-        <v>567.0051578243374</v>
+        <v>14.98618210858513</v>
       </c>
       <c r="R11" t="n">
-        <v>179.5800419666912</v>
+        <v>8.717350296937184</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L12" t="n">
-        <v>16.1219949439847</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O12" t="n">
-        <v>1027.238555384024</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248681</v>
       </c>
       <c r="Q12" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R12" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K13" t="n">
-        <v>284.7660952807853</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L13" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M13" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N13" t="n">
         <v>456.2519912427576</v>
@@ -35585,7 +35585,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P13" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q13" t="n">
         <v>175.1042693212594</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.937517176434271</v>
+        <v>4.93751717643428</v>
       </c>
       <c r="J14" t="n">
         <v>451.4295881567574</v>
@@ -35725,25 +35725,25 @@
         <v>28.88340476812628</v>
       </c>
       <c r="J15" t="n">
-        <v>184.294489180644</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K15" t="n">
-        <v>699.5995866973582</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L15" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M15" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N15" t="n">
         <v>19.31154788775575</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017843</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248681</v>
       </c>
       <c r="Q15" t="n">
         <v>555.679072360248</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K16" t="n">
-        <v>284.7660952807853</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L16" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M16" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N16" t="n">
         <v>456.2519912427576</v>
@@ -35822,7 +35822,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P16" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q16" t="n">
         <v>175.1042693212594</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.937517176434271</v>
+        <v>4.93751717643428</v>
       </c>
       <c r="J17" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L17" t="n">
-        <v>778.5926069857521</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M17" t="n">
         <v>24.36774616961543</v>
       </c>
       <c r="N17" t="n">
-        <v>1161.864045249493</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O17" t="n">
         <v>1013.462565165582</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K18" t="n">
-        <v>699.5995866973582</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L18" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N18" t="n">
         <v>19.31154788775575</v>
       </c>
       <c r="O18" t="n">
-        <v>57.82668880069104</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P18" t="n">
-        <v>842.181956485677</v>
+        <v>551.2310439248681</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R18" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K19" t="n">
-        <v>284.7660952807853</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L19" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M19" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N19" t="n">
         <v>456.2519912427576</v>
@@ -36059,7 +36059,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P19" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q19" t="n">
         <v>175.1042693212594</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.937517176434271</v>
+        <v>4.93751717643428</v>
       </c>
       <c r="J20" t="n">
-        <v>261.4327462427317</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L20" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M20" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N20" t="n">
-        <v>24.76204177833415</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O20" t="n">
         <v>1013.462565165582</v>
@@ -36144,7 +36144,7 @@
         <v>567.0051578243374</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L21" t="n">
-        <v>980.3068927329787</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N21" t="n">
         <v>19.31154788775575</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017843</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P21" t="n">
-        <v>605.7670702299001</v>
+        <v>551.2310439248681</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R21" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K22" t="n">
-        <v>284.7660952807853</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L22" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M22" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N22" t="n">
         <v>456.2519912427576</v>
@@ -36296,7 +36296,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P22" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q22" t="n">
         <v>175.1042693212594</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.937517176434271</v>
+        <v>4.93751717643428</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936559</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K23" t="n">
         <v>860.4308241280712</v>
@@ -36366,22 +36366,22 @@
         <v>1107.818956959326</v>
       </c>
       <c r="M23" t="n">
-        <v>1193.10293325098</v>
+        <v>979.5457982653106</v>
       </c>
       <c r="N23" t="n">
         <v>24.76204177833415</v>
       </c>
       <c r="O23" t="n">
-        <v>1013.462565165582</v>
+        <v>23.38209388244468</v>
       </c>
       <c r="P23" t="n">
-        <v>263.5090022589984</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q23" t="n">
         <v>567.0051578243374</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805472</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103204</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L24" t="n">
-        <v>16.1219949439847</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M24" t="n">
-        <v>209.9403028686353</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N24" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017843</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248681</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R24" t="n">
         <v>122.9664406999614</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.85529306948168</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K25" t="n">
-        <v>284.7660952807853</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L25" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M25" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N25" t="n">
         <v>456.2519912427576</v>
@@ -36533,7 +36533,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P25" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q25" t="n">
         <v>175.1042693212594</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.937517176434271</v>
+        <v>4.93751717643428</v>
       </c>
       <c r="J26" t="n">
         <v>451.4295881567575</v>
@@ -36600,13 +36600,13 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L26" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M26" t="n">
-        <v>160.328018651926</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833415</v>
+        <v>1075.778780422061</v>
       </c>
       <c r="O26" t="n">
         <v>1013.462565165582</v>
@@ -36615,10 +36615,10 @@
         <v>856.6327174106605</v>
       </c>
       <c r="Q26" t="n">
-        <v>567.0051578243365</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>28.8834047681263</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K27" t="n">
         <v>11.98997046465377</v>
       </c>
       <c r="L27" t="n">
-        <v>16.1219949439847</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O27" t="n">
-        <v>1041.708323619675</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P27" t="n">
-        <v>519.5829953130765</v>
+        <v>551.2310439248681</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R27" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>91.85529306948166</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K28" t="n">
         <v>284.7660952807854</v>
@@ -36761,7 +36761,7 @@
         <v>431.6890815777442</v>
       </c>
       <c r="M28" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N28" t="n">
         <v>456.2519912427576</v>
@@ -36770,10 +36770,10 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P28" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q28" t="n">
-        <v>175.1042693212594</v>
+        <v>175.1042693212557</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,22 +36828,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.937517176434271</v>
+        <v>4.93751717643428</v>
       </c>
       <c r="J29" t="n">
-        <v>11.77838870936559</v>
+        <v>451.4295881567575</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304289</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L29" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M29" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N29" t="n">
-        <v>103.5537076419464</v>
+        <v>1075.778780422061</v>
       </c>
       <c r="O29" t="n">
         <v>1013.462565165582</v>
@@ -36852,7 +36852,7 @@
         <v>856.6327174106605</v>
       </c>
       <c r="Q29" t="n">
-        <v>567.0051578243365</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R29" t="n">
         <v>179.5800419666912</v>
@@ -36913,22 +36913,22 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0422563676816</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L30" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N30" t="n">
         <v>19.31154788775575</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017843</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248681</v>
       </c>
       <c r="Q30" t="n">
         <v>555.679072360248</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>91.85529306948166</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K31" t="n">
         <v>284.7660952807854</v>
@@ -36998,7 +36998,7 @@
         <v>431.6890815777442</v>
       </c>
       <c r="M31" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N31" t="n">
         <v>456.2519912427576</v>
@@ -37007,7 +37007,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P31" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q31" t="n">
         <v>175.1042693212594</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.937517176434271</v>
+        <v>4.93751717643428</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936559</v>
+        <v>451.4295881567575</v>
       </c>
       <c r="K32" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L32" t="n">
-        <v>1107.818956959326</v>
+        <v>894.2618219736548</v>
       </c>
       <c r="M32" t="n">
-        <v>24.3677461696152</v>
+        <v>1193.10293325098</v>
       </c>
       <c r="N32" t="n">
-        <v>1161.864045249492</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O32" t="n">
-        <v>1013.462565165582</v>
+        <v>23.38209388244468</v>
       </c>
       <c r="P32" t="n">
-        <v>295.1421858692047</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q32" t="n">
-        <v>567.0051578243365</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0422563676816</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L33" t="n">
         <v>16.12199494398476</v>
@@ -37162,7 +37162,7 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017843</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P33" t="n">
         <v>14.17875802184039</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>91.85529306948166</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K34" t="n">
         <v>284.7660952807854</v>
@@ -37235,7 +37235,7 @@
         <v>431.6890815777442</v>
       </c>
       <c r="M34" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N34" t="n">
         <v>456.2519912427576</v>
@@ -37244,7 +37244,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P34" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q34" t="n">
         <v>175.1042693212594</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.937517176434271</v>
+        <v>4.93751717643428</v>
       </c>
       <c r="J35" t="n">
         <v>451.4295881567574</v>
@@ -37311,19 +37311,19 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.384484813343</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833415</v>
+        <v>826.5362638367455</v>
       </c>
       <c r="O35" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P35" t="n">
-        <v>856.6327174106605</v>
+        <v>19.95607616480538</v>
       </c>
       <c r="Q35" t="n">
         <v>567.0051578243374</v>
@@ -37384,10 +37384,10 @@
         <v>28.88340476812628</v>
       </c>
       <c r="J36" t="n">
-        <v>184.294489180644</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K36" t="n">
-        <v>699.5995866973582</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L36" t="n">
         <v>16.12199494398476</v>
@@ -37399,7 +37399,7 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O36" t="n">
-        <v>17.66629350017843</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P36" t="n">
         <v>14.17875802184039</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K37" t="n">
-        <v>284.7660952807853</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L37" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M37" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N37" t="n">
         <v>456.2519912427576</v>
@@ -37481,7 +37481,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P37" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q37" t="n">
         <v>175.1042693212594</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.937517176434271</v>
+        <v>4.93751717643428</v>
       </c>
       <c r="J38" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K38" t="n">
-        <v>825.528404940628</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L38" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M38" t="n">
-        <v>24.3677461696152</v>
+        <v>1193.10293325098</v>
       </c>
       <c r="N38" t="n">
         <v>24.76204177833415</v>
       </c>
       <c r="O38" t="n">
-        <v>1013.462565165582</v>
+        <v>652.6030315818025</v>
       </c>
       <c r="P38" t="n">
         <v>856.6327174106605</v>
@@ -37624,22 +37624,22 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0422563676816</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L39" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N39" t="n">
         <v>19.31154788775575</v>
       </c>
       <c r="O39" t="n">
-        <v>17.66629350017843</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248681</v>
       </c>
       <c r="Q39" t="n">
         <v>555.679072360248</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K40" t="n">
-        <v>284.7660952807853</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L40" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M40" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N40" t="n">
         <v>456.2519912427576</v>
@@ -37718,7 +37718,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P40" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q40" t="n">
         <v>175.1042693212594</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.937517176434271</v>
+        <v>4.93751717643428</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936559</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K41" t="n">
-        <v>17.6527514430429</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L41" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M41" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N41" t="n">
         <v>1161.864045249493</v>
@@ -37797,10 +37797,10 @@
         <v>1013.462565165582</v>
       </c>
       <c r="P41" t="n">
-        <v>350.3413555188663</v>
+        <v>527.4063674370868</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R41" t="n">
         <v>179.5800419666912</v>
@@ -37864,10 +37864,10 @@
         <v>11.98997046465377</v>
       </c>
       <c r="L42" t="n">
-        <v>16.1219949439847</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M42" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425514</v>
       </c>
       <c r="N42" t="n">
         <v>19.31154788775575</v>
@@ -37876,7 +37876,7 @@
         <v>17.66629350017854</v>
       </c>
       <c r="P42" t="n">
-        <v>551.2310439248682</v>
+        <v>551.2310439248681</v>
       </c>
       <c r="Q42" t="n">
         <v>555.679072360248</v>
@@ -37940,13 +37940,13 @@
         <v>91.85529306948168</v>
       </c>
       <c r="K43" t="n">
-        <v>284.7660952807853</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L43" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M43" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N43" t="n">
         <v>456.2519912427576</v>
@@ -37955,7 +37955,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P43" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q43" t="n">
         <v>175.1042693212594</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.937517176434271</v>
+        <v>4.93751717643428</v>
       </c>
       <c r="J44" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K44" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L44" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M44" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N44" t="n">
         <v>24.76204177833415</v>
@@ -38037,10 +38037,10 @@
         <v>856.6327174106605</v>
       </c>
       <c r="Q44" t="n">
-        <v>377.0083159103115</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K45" t="n">
-        <v>667.3985978771161</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M45" t="n">
         <v>18.81360767425508</v>
@@ -38110,7 +38110,7 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017843</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P45" t="n">
         <v>14.17875802184039</v>
@@ -38119,7 +38119,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R45" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K46" t="n">
-        <v>284.7660952807853</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L46" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M46" t="n">
-        <v>473.8830680450274</v>
+        <v>473.8830680450272</v>
       </c>
       <c r="N46" t="n">
         <v>456.2519912427576</v>
@@ -38192,7 +38192,7 @@
         <v>432.7070683647798</v>
       </c>
       <c r="P46" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q46" t="n">
         <v>175.1042693212594</v>
